--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H2">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I2">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J2">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.293357333333334</v>
+        <v>4.407279333333333</v>
       </c>
       <c r="N2">
-        <v>15.880072</v>
+        <v>13.221838</v>
       </c>
       <c r="O2">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="P2">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="Q2">
-        <v>0.4772226303866666</v>
+        <v>0.2976867443837778</v>
       </c>
       <c r="R2">
-        <v>4.29500367348</v>
+        <v>2.679180699454</v>
       </c>
       <c r="S2">
-        <v>0.002241627870938488</v>
+        <v>0.002019910977215916</v>
       </c>
       <c r="T2">
-        <v>0.002241627870938488</v>
+        <v>0.002019910977215916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H3">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I3">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J3">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.74076</v>
       </c>
       <c r="O3">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="P3">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="Q3">
-        <v>0.3227777392666666</v>
+        <v>0.2418258245644444</v>
       </c>
       <c r="R3">
-        <v>2.904999653399999</v>
+        <v>2.17643242108</v>
       </c>
       <c r="S3">
-        <v>0.00151616358987927</v>
+        <v>0.001640874667171207</v>
       </c>
       <c r="T3">
-        <v>0.00151616358987927</v>
+        <v>0.001640874667171207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H4">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I4">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J4">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.836954666666667</v>
+        <v>3.580339</v>
       </c>
       <c r="N4">
-        <v>17.510864</v>
+        <v>10.741017</v>
       </c>
       <c r="O4">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="P4">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="Q4">
-        <v>0.5262306479733333</v>
+        <v>0.2418316108623333</v>
       </c>
       <c r="R4">
-        <v>4.73607583176</v>
+        <v>2.176484497761</v>
       </c>
       <c r="S4">
-        <v>0.002471830152068166</v>
+        <v>0.00164091392927086</v>
       </c>
       <c r="T4">
-        <v>0.002471830152068166</v>
+        <v>0.00164091392927086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H5">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I5">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J5">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.115194333333332</v>
+        <v>3.389212666666667</v>
       </c>
       <c r="N5">
-        <v>12.345583</v>
+        <v>10.167638</v>
       </c>
       <c r="O5">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="P5">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="Q5">
-        <v>0.3710053451216665</v>
+        <v>0.2289221100948889</v>
       </c>
       <c r="R5">
-        <v>3.339048106094999</v>
+        <v>2.060298990854</v>
       </c>
       <c r="S5">
-        <v>0.001742700092026307</v>
+        <v>0.001553318351696465</v>
       </c>
       <c r="T5">
-        <v>0.001742700092026307</v>
+        <v>0.001553318351696465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>22.982727</v>
       </c>
       <c r="I6">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J6">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.293357333333334</v>
+        <v>4.407279333333333</v>
       </c>
       <c r="N6">
-        <v>15.880072</v>
+        <v>13.221838</v>
       </c>
       <c r="O6">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="P6">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="Q6">
-        <v>40.55192883514934</v>
+        <v>33.76376591024734</v>
       </c>
       <c r="R6">
-        <v>364.9673595163441</v>
+        <v>303.873893192226</v>
       </c>
       <c r="S6">
-        <v>0.1904820268551218</v>
+        <v>0.2290992215170117</v>
       </c>
       <c r="T6">
-        <v>0.1904820268551218</v>
+        <v>0.2290992215170117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>22.982727</v>
       </c>
       <c r="I7">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J7">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.74076</v>
       </c>
       <c r="O7">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="P7">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="Q7">
         <v>27.42799498361333</v>
@@ -883,10 +883,10 @@
         <v>246.85195485252</v>
       </c>
       <c r="S7">
-        <v>0.1288357971402408</v>
+        <v>0.18610875087874</v>
       </c>
       <c r="T7">
-        <v>0.1288357971402408</v>
+        <v>0.18610875087874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>22.982727</v>
       </c>
       <c r="I8">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J8">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.836954666666667</v>
+        <v>3.580339</v>
       </c>
       <c r="N8">
-        <v>17.510864</v>
+        <v>10.741017</v>
       </c>
       <c r="O8">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="P8">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="Q8">
-        <v>44.71637853845868</v>
+        <v>27.428651268151</v>
       </c>
       <c r="R8">
-        <v>402.4474068461281</v>
+        <v>246.857861413359</v>
       </c>
       <c r="S8">
-        <v>0.2100434347340734</v>
+        <v>0.1861132040039356</v>
       </c>
       <c r="T8">
-        <v>0.2100434347340734</v>
+        <v>0.1861132040039357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>22.982727</v>
       </c>
       <c r="I9">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J9">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.115194333333332</v>
+        <v>3.389212666666667</v>
       </c>
       <c r="N9">
-        <v>12.345583</v>
+        <v>10.167638</v>
       </c>
       <c r="O9">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="P9">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="Q9">
-        <v>31.52612930498233</v>
+        <v>25.96444982098067</v>
       </c>
       <c r="R9">
-        <v>283.735163744841</v>
+        <v>233.680048388826</v>
       </c>
       <c r="S9">
-        <v>0.1480857059431553</v>
+        <v>0.1761780737645391</v>
       </c>
       <c r="T9">
-        <v>0.1480857059431553</v>
+        <v>0.1761780737645391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H10">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I10">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J10">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.293357333333334</v>
+        <v>4.407279333333333</v>
       </c>
       <c r="N10">
-        <v>15.880072</v>
+        <v>13.221838</v>
       </c>
       <c r="O10">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="P10">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="Q10">
-        <v>18.31410768032445</v>
+        <v>8.558863010677776</v>
       </c>
       <c r="R10">
-        <v>164.82696912292</v>
+        <v>77.02976709609999</v>
       </c>
       <c r="S10">
-        <v>0.08602570706741346</v>
+        <v>0.05807494513584197</v>
       </c>
       <c r="T10">
-        <v>0.08602570706741346</v>
+        <v>0.05807494513584197</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H11">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I11">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J11">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.74076</v>
       </c>
       <c r="O11">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="P11">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="Q11">
-        <v>12.38706192317778</v>
+        <v>6.952792302444442</v>
       </c>
       <c r="R11">
-        <v>111.4835573086</v>
+        <v>62.57513072199998</v>
       </c>
       <c r="S11">
-        <v>0.05818496751408883</v>
+        <v>0.04717718124494082</v>
       </c>
       <c r="T11">
-        <v>0.05818496751408882</v>
+        <v>0.04717718124494082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H12">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I12">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J12">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.836954666666667</v>
+        <v>3.580339</v>
       </c>
       <c r="N12">
-        <v>17.510864</v>
+        <v>10.741017</v>
       </c>
       <c r="O12">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="P12">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="Q12">
-        <v>20.19486113611556</v>
+        <v>6.952958665683332</v>
       </c>
       <c r="R12">
-        <v>181.75375022504</v>
+        <v>62.57662799114998</v>
       </c>
       <c r="S12">
-        <v>0.09486005208045127</v>
+        <v>0.04717831007898795</v>
       </c>
       <c r="T12">
-        <v>0.09486005208045126</v>
+        <v>0.04717831007898795</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H13">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I13">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J13">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.115194333333332</v>
+        <v>3.389212666666667</v>
       </c>
       <c r="N13">
-        <v>12.345583</v>
+        <v>10.167638</v>
       </c>
       <c r="O13">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="P13">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="Q13">
-        <v>14.23786595163944</v>
+        <v>6.581794511788888</v>
       </c>
       <c r="R13">
-        <v>128.140793564755</v>
+        <v>59.23615060609999</v>
       </c>
       <c r="S13">
-        <v>0.06687863296428626</v>
+        <v>0.04465982861165763</v>
       </c>
       <c r="T13">
-        <v>0.06687863296428626</v>
+        <v>0.04465982861165762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H14">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I14">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J14">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.293357333333334</v>
+        <v>4.407279333333333</v>
       </c>
       <c r="N14">
-        <v>15.880072</v>
+        <v>13.221838</v>
       </c>
       <c r="O14">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="P14">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="Q14">
-        <v>0.5166722581395555</v>
+        <v>0.805791695072</v>
       </c>
       <c r="R14">
-        <v>4.650050323256001</v>
+        <v>7.252125255648</v>
       </c>
       <c r="S14">
-        <v>0.002426932128193374</v>
+        <v>0.005467584704164777</v>
       </c>
       <c r="T14">
-        <v>0.002426932128193374</v>
+        <v>0.005467584704164777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H15">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I15">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J15">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.74076</v>
       </c>
       <c r="O15">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="P15">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="Q15">
-        <v>0.3494601739422222</v>
+        <v>0.6545848774399999</v>
       </c>
       <c r="R15">
-        <v>3.145141565479999</v>
+        <v>5.891263896959999</v>
       </c>
       <c r="S15">
-        <v>0.001641497313438772</v>
+        <v>0.004441592393365041</v>
       </c>
       <c r="T15">
-        <v>0.001641497313438772</v>
+        <v>0.004441592393365042</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H16">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I16">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J16">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.836954666666667</v>
+        <v>3.580339</v>
       </c>
       <c r="N16">
-        <v>17.510864</v>
+        <v>10.741017</v>
       </c>
       <c r="O16">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="P16">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="Q16">
-        <v>0.5697315254524444</v>
+        <v>0.6546005400479999</v>
       </c>
       <c r="R16">
-        <v>5.127583729072001</v>
+        <v>5.891404860431999</v>
       </c>
       <c r="S16">
-        <v>0.002676164090063618</v>
+        <v>0.004441698669759366</v>
       </c>
       <c r="T16">
-        <v>0.002676164090063618</v>
+        <v>0.004441698669759366</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H17">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I17">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J17">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.115194333333332</v>
+        <v>3.389212666666667</v>
       </c>
       <c r="N17">
-        <v>12.345583</v>
+        <v>10.167638</v>
       </c>
       <c r="O17">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="P17">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="Q17">
-        <v>0.4016745167565554</v>
+        <v>0.6196565302720001</v>
       </c>
       <c r="R17">
-        <v>3.615070650808999</v>
+        <v>5.576908772448</v>
       </c>
       <c r="S17">
-        <v>0.001886760464560736</v>
+        <v>0.00420459107170157</v>
       </c>
       <c r="T17">
-        <v>0.001886760464560736</v>
+        <v>0.00420459107170157</v>
       </c>
     </row>
   </sheetData>
